--- a/figures/source_data/source_Fig.3c.xlsx
+++ b/figures/source_data/source_Fig.3c.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,279 +360,527 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>strain</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nitroxoline conc (mg/ml)</t>
+          <t>Biological_rep</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mean_OD</t>
+          <t>NPN_fluorescence</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>se_OD</t>
+          <t>Concentration</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>Chloramphenicol</t>
         </is>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>Chloramphenicol</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.040463384893923</v>
-      </c>
-      <c r="D3">
-        <v>0.02359547437670087</v>
+        <v>1434</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>Chloramphenicol</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.9783201678070277</v>
-      </c>
-      <c r="D4">
-        <v>0.02032831505353216</v>
+        <v>1403.5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>Chloramphenicol</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.7198163876511814</v>
-      </c>
-      <c r="D5">
-        <v>0.04003001179438431</v>
+        <v>601.5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>EDTA</t>
         </is>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.1181981139427947</v>
-      </c>
-      <c r="D6">
-        <v>0.004367274143447431</v>
+        <v>14950.5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.4 mM</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>EDTA</t>
         </is>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.0337137093082024</v>
-      </c>
-      <c r="D7">
-        <v>0.002333676617336312</v>
+        <v>17732.5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.4 mM</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>EDTA</t>
         </is>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.003210874299735377</v>
-      </c>
-      <c r="D8">
-        <v>0.001836037441977633</v>
+        <v>10158.5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.4 mM</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E. coli BW25113</t>
+          <t>EDTA</t>
         </is>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.0061624649859944</v>
-      </c>
-      <c r="D9">
-        <v>0.006162464985994401</v>
+        <v>9450</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.4 mM</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>5943.5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.90263827862368</v>
-      </c>
-      <c r="D11">
-        <v>0.0146472642297198</v>
+        <v>7008.5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0.849441644697119</v>
-      </c>
-      <c r="D12">
-        <v>0.01115089950889765</v>
+        <v>6089.5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0.2056522414916577</v>
-      </c>
-      <c r="D13">
-        <v>0.01379564697517807</v>
+        <v>4359</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.0598950244205719</v>
-      </c>
-      <c r="D14">
-        <v>0.001135929144007042</v>
+        <v>6305</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.9 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.006622986622986601</v>
-      </c>
-      <c r="D15">
-        <v>0.004201895477071453</v>
+        <v>10118</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.9 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.006033306033306003</v>
-      </c>
-      <c r="D16">
-        <v>0.003016745662381831</v>
+        <v>7799</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.9 (µg/ml)</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E. coli lptD4213</t>
+          <t>Nitroxoline</t>
         </is>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17">
+        <v>6163.5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.9 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nitroxoline</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3684.5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.8 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nitroxoline</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5613</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.8 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nitroxoline</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3465</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.8 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nitroxoline</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4088.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.8 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PolymyxinB</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>23113</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PolymyxinB</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>25236.5</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PolymyxinB</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>21609.5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PolymyxinB</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>21383</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nodrug</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>nodrug</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nodrug</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0 (µg/ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nodrug</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0 (µg/ml)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/figures/source_data/source_Fig.3c.xlsx
+++ b/figures/source_data/source_Fig.3c.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.45 (µg/ml)</t>
+          <t>0.225 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.45 (µg/ml)</t>
+          <t>0.225 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.45 (µg/ml)</t>
+          <t>0.225 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.45 (µg/ml)</t>
+          <t>0.225 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.9 (µg/ml)</t>
+          <t>0.45 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9 (µg/ml)</t>
+          <t>0.45 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.9 (µg/ml)</t>
+          <t>0.45 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9 (µg/ml)</t>
+          <t>0.45 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.8 (µg/ml)</t>
+          <t>0.9 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.8 (µg/ml)</t>
+          <t>0.9 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.8 (µg/ml)</t>
+          <t>0.9 (µg/ml)</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.8 (µg/ml)</t>
+          <t>0.9 (µg/ml)</t>
         </is>
       </c>
     </row>
